--- a/Code/Results/Cases/Case_2_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.90485505827554</v>
+        <v>10.12531930373934</v>
       </c>
       <c r="C2">
-        <v>6.814619980014112</v>
+        <v>4.673205954955797</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.17023998650056</v>
+        <v>12.14585239965294</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>29.74816462976331</v>
+        <v>35.17305370159212</v>
       </c>
       <c r="H2">
-        <v>10.42620176921422</v>
+        <v>15.82555108395776</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.31575781587527</v>
+        <v>9.455566637351513</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.56237984142257</v>
+        <v>14.08704352671802</v>
       </c>
       <c r="N2">
-        <v>12.8905762505013</v>
+        <v>19.60505950283795</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01909799101251</v>
+        <v>9.879514157090451</v>
       </c>
       <c r="C3">
-        <v>6.432913174562057</v>
+        <v>4.496068194755836</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.30045618883972</v>
+        <v>11.92214965718733</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>29.1208225408993</v>
+        <v>35.15954875482266</v>
       </c>
       <c r="H3">
-        <v>10.44395444769796</v>
+        <v>15.86928600165002</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.60350445344587</v>
+        <v>9.297095232072641</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.59070156604665</v>
+        <v>13.93117522771406</v>
       </c>
       <c r="N3">
-        <v>13.12923936485203</v>
+        <v>19.67257200615339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.44462308482051</v>
+        <v>9.728095716980095</v>
       </c>
       <c r="C4">
-        <v>6.187681406579813</v>
+        <v>4.382668462738046</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.74928201092408</v>
+        <v>11.78671725173012</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>28.76578847518217</v>
+        <v>35.16259127605312</v>
       </c>
       <c r="H4">
-        <v>10.46283619764024</v>
+        <v>15.89896148038926</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.14309912448309</v>
+        <v>9.200719138236048</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.96281180087382</v>
+        <v>13.83834632795204</v>
       </c>
       <c r="N4">
-        <v>13.27894625255552</v>
+        <v>19.71595641163805</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.20275636615354</v>
+        <v>9.666367563570274</v>
       </c>
       <c r="C5">
-        <v>6.085038458681036</v>
+        <v>4.335328207892892</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.52053796875778</v>
+        <v>11.73209192024214</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>28.62858605277718</v>
+        <v>35.16667514078919</v>
       </c>
       <c r="H5">
-        <v>10.4724479950601</v>
+        <v>15.91176285084509</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.949667184923779</v>
+        <v>9.16173167569981</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.69901639129458</v>
+        <v>13.80128308892574</v>
       </c>
       <c r="N5">
-        <v>13.340774864525</v>
+        <v>19.73412289204618</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.16212382461596</v>
+        <v>9.656119198528204</v>
       </c>
       <c r="C6">
-        <v>6.067831928802867</v>
+        <v>4.327400382210422</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.48231135221102</v>
+        <v>11.72305788199433</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>28.60625160348571</v>
+        <v>35.16752480606207</v>
       </c>
       <c r="H6">
-        <v>10.47415725396199</v>
+        <v>15.91393125509798</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.917196798868162</v>
+        <v>9.155276715756102</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.65473309484292</v>
+        <v>13.79517619427763</v>
       </c>
       <c r="N6">
-        <v>13.35109182731473</v>
+        <v>19.73716887321605</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.44139270447612</v>
+        <v>9.727263191551408</v>
       </c>
       <c r="C7">
-        <v>6.186308058995346</v>
+        <v>4.38203453425351</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.74621357390418</v>
+        <v>11.78597816291827</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>28.76390800340946</v>
+        <v>35.16263484725886</v>
       </c>
       <c r="H7">
-        <v>10.46295817918794</v>
+        <v>15.89913125769687</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.14051397539673</v>
+        <v>9.200192108362289</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.95928632688229</v>
+        <v>13.83784332674655</v>
       </c>
       <c r="N7">
-        <v>13.27977673401433</v>
+        <v>19.71619943766469</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60576083828025</v>
+        <v>10.04072694349043</v>
       </c>
       <c r="C8">
-        <v>6.685272015020003</v>
+        <v>4.613111848515545</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.87397890578156</v>
+        <v>12.06836955305944</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>29.52554263147455</v>
+        <v>35.16604172717707</v>
       </c>
       <c r="H8">
-        <v>10.43061160770757</v>
+        <v>15.84004441808055</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.07495371827548</v>
+        <v>9.400765710411305</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.23379702872222</v>
+        <v>14.03272936669931</v>
       </c>
       <c r="N8">
-        <v>12.97222566846777</v>
+        <v>19.62793772834851</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.64918480254701</v>
+        <v>10.64731802559112</v>
       </c>
       <c r="C9">
-        <v>7.577113878218779</v>
+        <v>5.028075904327005</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.10293588557676</v>
+        <v>12.63382639572961</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>31.26189262341036</v>
+        <v>35.26282141128744</v>
       </c>
       <c r="H9">
-        <v>10.4346512676829</v>
+        <v>15.74662252411837</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.7252521533173</v>
+        <v>9.799090276058118</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.48814964864624</v>
+        <v>14.43577777512291</v>
       </c>
       <c r="N9">
-        <v>12.3930461678753</v>
+        <v>19.47012132967644</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.00862140508207</v>
+        <v>11.0827454403407</v>
       </c>
       <c r="C10">
-        <v>8.179643602036316</v>
+        <v>5.308108242973054</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.6939483506426</v>
+        <v>13.05169228478083</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>32.68920148932533</v>
+        <v>35.38891218123201</v>
       </c>
       <c r="H10">
-        <v>10.48461375878114</v>
+        <v>15.69174437983032</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.8287276809622</v>
+        <v>10.09169757178276</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.00013037230788</v>
+        <v>14.74196086304866</v>
       </c>
       <c r="N10">
-        <v>11.98038196153075</v>
+        <v>19.36339260122981</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.5972696629515</v>
+        <v>11.27759745017972</v>
       </c>
       <c r="C11">
-        <v>8.442496767357776</v>
+        <v>5.42985028304418</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.38869075247949</v>
+        <v>13.24135920500874</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>33.37201421470195</v>
+        <v>35.45817146880849</v>
       </c>
       <c r="H11">
-        <v>10.51886099167902</v>
+        <v>15.66978173301484</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.30766171268204</v>
+        <v>10.22417375007419</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.65789886696728</v>
+        <v>14.88285845109118</v>
       </c>
       <c r="N11">
-        <v>11.79505424792744</v>
+        <v>19.3168222979076</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.81598248990246</v>
+        <v>11.3508424083319</v>
       </c>
       <c r="C12">
-        <v>8.540440768162343</v>
+        <v>5.47512145836225</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.64774228558733</v>
+        <v>13.31304441543563</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>33.6354424313759</v>
+        <v>35.48610126827212</v>
       </c>
       <c r="H12">
-        <v>10.53359772062804</v>
+        <v>15.66189787708267</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.48576624811128</v>
+        <v>10.27419802769703</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.90277360161738</v>
+        <v>14.93639619425703</v>
       </c>
       <c r="N12">
-        <v>11.72518777269364</v>
+        <v>19.29947087901255</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76906396006369</v>
+        <v>11.33509303745339</v>
       </c>
       <c r="C13">
-        <v>8.519417165506441</v>
+        <v>5.465408668020431</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.59212786427118</v>
+        <v>13.29761302525369</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>33.57849144613854</v>
+        <v>35.48001051567191</v>
       </c>
       <c r="H13">
-        <v>10.53034345902045</v>
+        <v>15.66357653235223</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.44755215241564</v>
+        <v>10.26343148428216</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.85022070887323</v>
+        <v>14.9248585270258</v>
       </c>
       <c r="N13">
-        <v>11.74022134666333</v>
+        <v>19.303195215909</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.6153468789389</v>
+        <v>11.28363462669857</v>
       </c>
       <c r="C14">
-        <v>8.450586441367856</v>
+        <v>5.433591495526384</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.41008304064022</v>
+        <v>13.24725997431332</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>33.39358889986216</v>
+        <v>35.46043520105657</v>
       </c>
       <c r="H14">
-        <v>10.52003730705599</v>
+        <v>15.66912443989305</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.32237941585363</v>
+        <v>10.22829239725361</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.67812851640933</v>
+        <v>14.88725964801583</v>
       </c>
       <c r="N14">
-        <v>11.78930019701355</v>
+        <v>19.31538910605136</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.52064695441247</v>
+        <v>11.25204218101047</v>
       </c>
       <c r="C15">
-        <v>8.408219025571647</v>
+        <v>5.413993994931379</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.29805459236943</v>
+        <v>13.21639714554385</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>33.28096530760023</v>
+        <v>35.44866621650817</v>
       </c>
       <c r="H15">
-        <v>10.51395810652971</v>
+        <v>15.67257910978456</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.24528508054039</v>
+        <v>10.2067487883451</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.57217256869912</v>
+        <v>14.86425161511957</v>
       </c>
       <c r="N15">
-        <v>11.81940224763283</v>
+        <v>19.32289513415849</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.96956002655001</v>
+        <v>11.06993973672541</v>
       </c>
       <c r="C16">
-        <v>8.162241198753192</v>
+        <v>5.300036899060774</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.64797309268459</v>
+        <v>13.03928196302569</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>32.64525596283015</v>
+        <v>35.38462472644818</v>
       </c>
       <c r="H16">
-        <v>10.48261688872994</v>
+        <v>15.69324020298165</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.79696917195133</v>
+        <v>10.08302283947189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.95654851101352</v>
+        <v>14.73278113261737</v>
       </c>
       <c r="N16">
-        <v>11.99253909658122</v>
+        <v>19.36647584769706</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.62392105161584</v>
+        <v>10.95734256973027</v>
       </c>
       <c r="C17">
-        <v>8.008477366199395</v>
+        <v>5.228668118442291</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.24183283642495</v>
+        <v>12.93046363960222</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>32.2638817054556</v>
+        <v>35.34838010733903</v>
       </c>
       <c r="H17">
-        <v>10.46641886293515</v>
+        <v>15.70668484906052</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.51607777035125</v>
+        <v>10.00692231412899</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.57126571094099</v>
+        <v>14.65250642343015</v>
       </c>
       <c r="N17">
-        <v>12.09934432027138</v>
+        <v>19.39371780311629</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.42231155769066</v>
+        <v>10.89228024967039</v>
       </c>
       <c r="C18">
-        <v>7.918976598904876</v>
+        <v>5.187088135132573</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.00549129286969</v>
+        <v>12.86783885346954</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>32.0476779275308</v>
+        <v>35.32865391755091</v>
       </c>
       <c r="H18">
-        <v>10.45817955985854</v>
+        <v>15.71470031420436</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.35234378476801</v>
+        <v>9.963094687037367</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.3468265421869</v>
+        <v>14.60648931849939</v>
       </c>
       <c r="N18">
-        <v>12.16100323221261</v>
+        <v>19.40957319583174</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.35356541879188</v>
+        <v>10.87020229729977</v>
       </c>
       <c r="C19">
-        <v>7.888490536108464</v>
+        <v>5.172919339216652</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.92499537900149</v>
+        <v>12.84663149887837</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>31.97501538573828</v>
+        <v>35.32216767082205</v>
       </c>
       <c r="H19">
-        <v>10.45557156003395</v>
+        <v>15.71746268595253</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.29653151917022</v>
+        <v>9.948247259359604</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.27034519269226</v>
+        <v>14.59093680397632</v>
       </c>
       <c r="N19">
-        <v>12.18191987759892</v>
+        <v>19.41497363289342</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.66100483522744</v>
+        <v>10.96936029724572</v>
       </c>
       <c r="C20">
-        <v>8.024955332925556</v>
+        <v>5.236320495873938</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.2853498078228</v>
+        <v>12.94205176328637</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>32.30415309368033</v>
+        <v>35.35212246690293</v>
       </c>
       <c r="H20">
-        <v>10.46803086724829</v>
+        <v>15.70522440047402</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.54620362022951</v>
+        <v>10.01502957834589</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.61257232506818</v>
+        <v>14.66103614059413</v>
       </c>
       <c r="N20">
-        <v>12.08795141504511</v>
+        <v>19.39079855249343</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.66061047517429</v>
+        <v>11.29876448611967</v>
       </c>
       <c r="C21">
-        <v>8.47084669900779</v>
+        <v>5.442959623254967</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.46366226983011</v>
+        <v>13.26205421336453</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>33.44776692920694</v>
+        <v>35.46613881198352</v>
       </c>
       <c r="H21">
-        <v>10.52301558517447</v>
+        <v>15.66748312563777</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.35923360439784</v>
+        <v>10.2386178340621</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.72878942686673</v>
+        <v>14.89829877612397</v>
       </c>
       <c r="N21">
-        <v>11.77487630344098</v>
+        <v>19.31179977320233</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.28949908583209</v>
+        <v>11.51086255814577</v>
       </c>
       <c r="C22">
-        <v>8.75299431696526</v>
+        <v>5.57316650679039</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.21032895803542</v>
+        <v>13.47035956267808</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>34.22355170619984</v>
+        <v>35.55057457013211</v>
       </c>
       <c r="H22">
-        <v>10.56931073628419</v>
+        <v>15.64534097715174</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.87164033909582</v>
+        <v>10.38389855503379</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.43383399837318</v>
+        <v>15.05440718873188</v>
       </c>
       <c r="N22">
-        <v>11.57207382621374</v>
+        <v>19.26182286474601</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.95605367928533</v>
+        <v>11.3979774163096</v>
       </c>
       <c r="C23">
-        <v>8.603245278084213</v>
+        <v>5.504121095882172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.81391271092257</v>
+        <v>13.35928391051332</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>33.8068884208359</v>
+        <v>35.50460545354273</v>
       </c>
       <c r="H23">
-        <v>10.5436165930463</v>
+        <v>15.65692730666168</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.5998732197302</v>
+        <v>10.30645317298086</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.05973770601892</v>
+        <v>14.97100980942724</v>
       </c>
       <c r="N23">
-        <v>11.68015815569635</v>
+        <v>19.28834557147714</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.64424828665656</v>
+        <v>10.9639281005279</v>
       </c>
       <c r="C24">
-        <v>8.017509071788359</v>
+        <v>5.232862565091159</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.26568466046503</v>
+        <v>12.93681296507043</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>32.28593689144112</v>
+        <v>35.35042708373335</v>
       </c>
       <c r="H24">
-        <v>10.46729874586766</v>
+        <v>15.70588377858394</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.53259072275136</v>
+        <v>10.01136451832789</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.59390675487277</v>
+        <v>14.65717943464068</v>
       </c>
       <c r="N24">
-        <v>12.09310135034567</v>
+        <v>19.39211774241858</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.12162629108403</v>
+        <v>10.48465376942992</v>
       </c>
       <c r="C25">
-        <v>7.345142190490455</v>
+        <v>4.920080968600196</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.49043928602022</v>
+        <v>12.48009587335307</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>30.76574265835783</v>
+        <v>35.22697752144919</v>
       </c>
       <c r="H25">
-        <v>10.42574012470471</v>
+        <v>15.76948463515959</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.2981223637886</v>
+        <v>9.691121101945583</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.90402318517858</v>
+        <v>14.32477960262114</v>
       </c>
       <c r="N25">
-        <v>12.54734322693353</v>
+        <v>19.51118968789913</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.12531930373934</v>
+        <v>12.90485505827553</v>
       </c>
       <c r="C2">
-        <v>4.673205954955797</v>
+        <v>6.814619980014045</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.14585239965294</v>
+        <v>14.17023998650057</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>35.17305370159212</v>
+        <v>29.74816462976316</v>
       </c>
       <c r="H2">
-        <v>15.82555108395776</v>
+        <v>10.42620176921425</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.455566637351513</v>
+        <v>11.31575781587529</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.08704352671802</v>
+        <v>14.56237984142259</v>
       </c>
       <c r="N2">
-        <v>19.60505950283795</v>
+        <v>12.8905762505013</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.879514157090451</v>
+        <v>12.0190979910125</v>
       </c>
       <c r="C3">
-        <v>4.496068194755836</v>
+        <v>6.43291317456207</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.92214965718733</v>
+        <v>13.30045618883971</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>35.15954875482266</v>
+        <v>29.12082254089917</v>
       </c>
       <c r="H3">
-        <v>15.86928600165002</v>
+        <v>10.44395444769789</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.297095232072641</v>
+        <v>10.60350445344588</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.93117522771406</v>
+        <v>13.5907015660467</v>
       </c>
       <c r="N3">
-        <v>19.67257200615339</v>
+        <v>13.12923936485199</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.728095716980095</v>
+        <v>11.44462308482045</v>
       </c>
       <c r="C4">
-        <v>4.382668462738046</v>
+        <v>6.187681406579908</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78671725173012</v>
+        <v>12.74928201092404</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>35.16259127605312</v>
+        <v>28.76578847518254</v>
       </c>
       <c r="H4">
-        <v>15.89896148038926</v>
+        <v>10.46283619764042</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.200719138236048</v>
+        <v>10.14309912448309</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.83834632795204</v>
+        <v>12.96281180087381</v>
       </c>
       <c r="N4">
-        <v>19.71595641163805</v>
+        <v>13.27894625255562</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.666367563570274</v>
+        <v>11.20275636615357</v>
       </c>
       <c r="C5">
-        <v>4.335328207892892</v>
+        <v>6.08503845868112</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.73209192024214</v>
+        <v>12.52053796875776</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>35.16667514078919</v>
+        <v>28.62858605277719</v>
       </c>
       <c r="H5">
-        <v>15.91176285084509</v>
+        <v>10.47244799506005</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.16173167569981</v>
+        <v>9.949667184923811</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.80128308892574</v>
+        <v>12.69901639129464</v>
       </c>
       <c r="N5">
-        <v>19.73412289204618</v>
+        <v>13.340774864525</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.656119198528204</v>
+        <v>11.16212382461603</v>
       </c>
       <c r="C6">
-        <v>4.327400382210422</v>
+        <v>6.067831928802865</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.72305788199433</v>
+        <v>12.48231135221102</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>35.16752480606207</v>
+        <v>28.60625160348559</v>
       </c>
       <c r="H6">
-        <v>15.91393125509798</v>
+        <v>10.47415725396188</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.155276715756102</v>
+        <v>9.917196798868213</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.79517619427763</v>
+        <v>12.65473309484297</v>
       </c>
       <c r="N6">
-        <v>19.73716887321605</v>
+        <v>13.3510918273147</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.727263191551408</v>
+        <v>11.44139270447623</v>
       </c>
       <c r="C7">
-        <v>4.38203453425351</v>
+        <v>6.186308058995429</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.78597816291827</v>
+        <v>12.74621357390422</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>35.16263484725886</v>
+        <v>28.76390800340915</v>
       </c>
       <c r="H7">
-        <v>15.89913125769687</v>
+        <v>10.46295817918778</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.200192108362289</v>
+        <v>10.14051397539685</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.83784332674655</v>
+        <v>12.95928632688229</v>
       </c>
       <c r="N7">
-        <v>19.71619943766469</v>
+        <v>13.27977673401424</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.04072694349043</v>
+        <v>12.60576083828024</v>
       </c>
       <c r="C8">
-        <v>4.613111848515545</v>
+        <v>6.68527201502003</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.06836955305944</v>
+        <v>13.87397890578156</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>35.16604172717707</v>
+        <v>29.52554263147454</v>
       </c>
       <c r="H8">
-        <v>15.84004441808055</v>
+        <v>10.43061160770755</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.400765710411305</v>
+        <v>11.07495371827546</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.03272936669931</v>
+        <v>14.23379702872224</v>
       </c>
       <c r="N8">
-        <v>19.62793772834851</v>
+        <v>12.97222566846774</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.64731802559112</v>
+        <v>14.649184802547</v>
       </c>
       <c r="C9">
-        <v>5.028075904327005</v>
+        <v>7.577113878218775</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.63382639572961</v>
+        <v>16.10293588557673</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>35.26282141128744</v>
+        <v>31.2618926234103</v>
       </c>
       <c r="H9">
-        <v>15.74662252411837</v>
+        <v>10.43465126768288</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.799090276058118</v>
+        <v>12.72525215331732</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.43577777512291</v>
+        <v>16.48814964864623</v>
       </c>
       <c r="N9">
-        <v>19.47012132967644</v>
+        <v>12.39304616787526</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.0827454403407</v>
+        <v>16.00862140508202</v>
       </c>
       <c r="C10">
-        <v>5.308108242973054</v>
+        <v>8.179643602036341</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.05169228478083</v>
+        <v>17.69394835064263</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>35.38891218123201</v>
+        <v>32.68920148932546</v>
       </c>
       <c r="H10">
-        <v>15.69174437983032</v>
+        <v>10.48461375878118</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.09169757178276</v>
+        <v>13.82872768096214</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.74196086304866</v>
+        <v>18.00013037230787</v>
       </c>
       <c r="N10">
-        <v>19.36339260122981</v>
+        <v>11.98038196153078</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.27759745017972</v>
+        <v>16.59726966295153</v>
       </c>
       <c r="C11">
-        <v>5.42985028304418</v>
+        <v>8.442496767357879</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.24135920500874</v>
+        <v>18.38869075247948</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>35.45817146880849</v>
+        <v>33.37201421470195</v>
       </c>
       <c r="H11">
-        <v>15.66978173301484</v>
+        <v>10.51886099167897</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.22417375007419</v>
+        <v>14.3076617126821</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.88285845109118</v>
+        <v>18.65789886696732</v>
       </c>
       <c r="N11">
-        <v>19.3168222979076</v>
+        <v>11.79505424792744</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.3508424083319</v>
+        <v>16.81598248990258</v>
       </c>
       <c r="C12">
-        <v>5.47512145836225</v>
+        <v>8.540440768162275</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.31304441543563</v>
+        <v>18.64774228558736</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>35.48610126827212</v>
+        <v>33.63544243137575</v>
       </c>
       <c r="H12">
-        <v>15.66189787708267</v>
+        <v>10.53359772062796</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.27419802769703</v>
+        <v>14.48576624811137</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.93639619425703</v>
+        <v>18.90277360161744</v>
       </c>
       <c r="N12">
-        <v>19.29947087901255</v>
+        <v>11.72518777269348</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.33509303745339</v>
+        <v>16.76906396006369</v>
       </c>
       <c r="C13">
-        <v>5.465408668020431</v>
+        <v>8.519417165506365</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.29761302525369</v>
+        <v>18.59212786427123</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>35.48001051567191</v>
+        <v>33.57849144613854</v>
       </c>
       <c r="H13">
-        <v>15.66357653235223</v>
+        <v>10.53034345902048</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.26343148428216</v>
+        <v>14.44755215241562</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.9248585270258</v>
+        <v>18.85022070887324</v>
       </c>
       <c r="N13">
-        <v>19.303195215909</v>
+        <v>11.74022134666336</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.28363462669857</v>
+        <v>16.61534687893891</v>
       </c>
       <c r="C14">
-        <v>5.433591495526384</v>
+        <v>8.450586441367907</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.24725997431332</v>
+        <v>18.41008304064027</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>35.46043520105657</v>
+        <v>33.39358889986219</v>
       </c>
       <c r="H14">
-        <v>15.66912443989305</v>
+        <v>10.52003730705605</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.22829239725361</v>
+        <v>14.32237941585366</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.88725964801583</v>
+        <v>18.67812851640937</v>
       </c>
       <c r="N14">
-        <v>19.31538910605136</v>
+        <v>11.78930019701358</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.25204218101047</v>
+        <v>16.5206469544125</v>
       </c>
       <c r="C15">
-        <v>5.413993994931379</v>
+        <v>8.408219025571812</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.21639714554385</v>
+        <v>18.29805459236943</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>35.44866621650817</v>
+        <v>33.2809653076003</v>
       </c>
       <c r="H15">
-        <v>15.67257910978456</v>
+        <v>10.51395810652969</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.2067487883451</v>
+        <v>14.24528508054049</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.86425161511957</v>
+        <v>18.57217256869916</v>
       </c>
       <c r="N15">
-        <v>19.32289513415849</v>
+        <v>11.81940224763281</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.06993973672541</v>
+        <v>15.96956002655005</v>
       </c>
       <c r="C16">
-        <v>5.300036899060774</v>
+        <v>8.162241198753346</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.03928196302569</v>
+        <v>17.64797309268461</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>35.38462472644818</v>
+        <v>32.64525596283023</v>
       </c>
       <c r="H16">
-        <v>15.69324020298165</v>
+        <v>10.48261688872988</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.08302283947189</v>
+        <v>13.7969691719514</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.73278113261737</v>
+        <v>17.95654851101355</v>
       </c>
       <c r="N16">
-        <v>19.36647584769706</v>
+        <v>11.99253909658117</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.95734256973027</v>
+        <v>15.62392105161585</v>
       </c>
       <c r="C17">
-        <v>5.228668118442291</v>
+        <v>8.00847736619958</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.93046363960222</v>
+        <v>17.24183283642496</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>35.34838010733903</v>
+        <v>32.26388170545533</v>
       </c>
       <c r="H17">
-        <v>15.70668484906052</v>
+        <v>10.46641886293513</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.00692231412899</v>
+        <v>13.51607777035131</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.65250642343015</v>
+        <v>17.57126571094101</v>
       </c>
       <c r="N17">
-        <v>19.39371780311629</v>
+        <v>12.09934432027134</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.89228024967039</v>
+        <v>15.4223115576907</v>
       </c>
       <c r="C18">
-        <v>5.187088135132573</v>
+        <v>7.918976598904911</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.86783885346954</v>
+        <v>17.00549129286972</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>35.32865391755091</v>
+        <v>32.04767792753074</v>
       </c>
       <c r="H18">
-        <v>15.71470031420436</v>
+        <v>10.45817955985857</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.963094687037367</v>
+        <v>13.35234378476801</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.60648931849939</v>
+        <v>17.34682654218692</v>
       </c>
       <c r="N18">
-        <v>19.40957319583174</v>
+        <v>12.16100323221255</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.87020229729977</v>
+        <v>15.35356541879184</v>
       </c>
       <c r="C19">
-        <v>5.172919339216652</v>
+        <v>7.888490536108275</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.84663149887837</v>
+        <v>16.92499537900153</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>35.32216767082205</v>
+        <v>31.97501538573836</v>
       </c>
       <c r="H19">
-        <v>15.71746268595253</v>
+        <v>10.45557156003392</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.948247259359604</v>
+        <v>13.29653151917013</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.59093680397632</v>
+        <v>17.27034519269224</v>
       </c>
       <c r="N19">
-        <v>19.41497363289342</v>
+        <v>12.18191987759891</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.96936029724572</v>
+        <v>15.66100483522749</v>
       </c>
       <c r="C20">
-        <v>5.236320495873938</v>
+        <v>8.024955332925646</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.94205176328637</v>
+        <v>17.28534980782275</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>35.35212246690293</v>
+        <v>32.30415309368042</v>
       </c>
       <c r="H20">
-        <v>15.70522440047402</v>
+        <v>10.46803086724819</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.01502957834589</v>
+        <v>13.5462036202296</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.66103614059413</v>
+        <v>17.6125723250682</v>
       </c>
       <c r="N20">
-        <v>19.39079855249343</v>
+        <v>12.08795141504508</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.29876448611967</v>
+        <v>16.66061047517428</v>
       </c>
       <c r="C21">
-        <v>5.442959623254967</v>
+        <v>8.470846699007966</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.26205421336453</v>
+        <v>18.46366226983013</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>35.46613881198352</v>
+        <v>33.44776692920702</v>
       </c>
       <c r="H21">
-        <v>15.66748312563777</v>
+        <v>10.52301558517448</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.2386178340621</v>
+        <v>14.35923360439787</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.89829877612397</v>
+        <v>18.72878942686679</v>
       </c>
       <c r="N21">
-        <v>19.31179977320233</v>
+        <v>11.77487630344098</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.51086255814577</v>
+        <v>17.28949908583214</v>
       </c>
       <c r="C22">
-        <v>5.57316650679039</v>
+        <v>8.752994316965328</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.47035956267808</v>
+        <v>19.21032895803545</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>35.55057457013211</v>
+        <v>34.22355170619987</v>
       </c>
       <c r="H22">
-        <v>15.64534097715174</v>
+        <v>10.56931073628416</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.38389855503379</v>
+        <v>14.87164033909585</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.05440718873188</v>
+        <v>19.4338339983732</v>
       </c>
       <c r="N22">
-        <v>19.26182286474601</v>
+        <v>11.57207382621372</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.3979774163096</v>
+        <v>16.95605367928531</v>
       </c>
       <c r="C23">
-        <v>5.504121095882172</v>
+        <v>8.603245278083968</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.35928391051332</v>
+        <v>18.8139127109225</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>35.50460545354273</v>
+        <v>33.80688842083585</v>
       </c>
       <c r="H23">
-        <v>15.65692730666168</v>
+        <v>10.54361659304623</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.30645317298086</v>
+        <v>14.5998732197301</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.97100980942724</v>
+        <v>19.05973770601885</v>
       </c>
       <c r="N23">
-        <v>19.28834557147714</v>
+        <v>11.68015815569628</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.9639281005279</v>
+        <v>15.64424828665653</v>
       </c>
       <c r="C24">
-        <v>5.232862565091159</v>
+        <v>8.017509071788439</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.93681296507043</v>
+        <v>17.26568466046499</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>35.35042708373335</v>
+        <v>32.28593689144112</v>
       </c>
       <c r="H24">
-        <v>15.70588377858394</v>
+        <v>10.4672987458677</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.01136451832789</v>
+        <v>13.53259072275136</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.65717943464068</v>
+        <v>17.59390675487274</v>
       </c>
       <c r="N24">
-        <v>19.39211774241858</v>
+        <v>12.09310135034571</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.48465376942992</v>
+        <v>14.12162629108398</v>
       </c>
       <c r="C25">
-        <v>4.920080968600196</v>
+        <v>7.345142190490376</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.48009587335307</v>
+        <v>15.49043928602027</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>35.22697752144919</v>
+        <v>30.76574265835801</v>
       </c>
       <c r="H25">
-        <v>15.76948463515959</v>
+        <v>10.42574012470477</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.691121101945583</v>
+        <v>12.29812236378855</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.32477960262114</v>
+        <v>15.9040231851786</v>
       </c>
       <c r="N25">
-        <v>19.51118968789913</v>
+        <v>12.54734322693356</v>
       </c>
       <c r="O25">
         <v>0</v>
